--- a/figure/chapter4/mrcnn_valid.xlsx
+++ b/figure/chapter4/mrcnn_valid.xlsx
@@ -1,39 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsushi/github/master-thesis/figure/chapter4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8B1CF2-7950-9B41-B97C-891BF3254383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA3FA4A-CC56-7448-9715-A867ECF9D47B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="39740" windowHeight="22580" xr2:uid="{4D081F63-3F56-F747-A3B6-A66939B55D2D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{4D081F63-3F56-F747-A3B6-A66939B55D2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$17:$A$30</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$J$17:$J$25</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$K$17:$K$25</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$17:$B$30</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$17:$D$25</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$E$17:$E$25</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$G$17:$G$27</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$H$17:$H$27</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$J$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
     <t>350ml bottle</t>
     <phoneticPr fontId="1"/>
@@ -56,6 +63,10 @@
   </si>
   <si>
     <t>cell phone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>padding</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1042,7 +1053,1065 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2124934388807152"/>
+          <c:y val="2.8551827503537665E-2"/>
+          <c:w val="0.7484281412728403"/>
+          <c:h val="0.75029939497207521"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>350ml bottle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:marker>
+              <c:symbol val="diamond"/>
+              <c:size val="10"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="38100">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-0177-EF49-81B6-6023E9432F1F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$17:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.99950000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97540000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83040000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79779999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71040000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75949999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.71250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6770-B54A-8EA8-A9A8BB2B6A6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>650ml bottle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$17:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.99960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99650000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97119999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6770-B54A-8EA8-A9A8BB2B6A6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cell phone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$17:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$17:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6770-B54A-8EA8-A9A8BB2B6A6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$17:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$17:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.90849999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99629999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99680000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99660000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99570000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6770-B54A-8EA8-A9A8BB2B6A6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1131451424"/>
+        <c:axId val="1131457680"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>10</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0.5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6770-B54A-8EA8-A9A8BB2B6A6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1176158784"/>
+        <c:axId val="1175837984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1131451424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="3200" i="0"/>
+                  <a:t>Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="3200"/>
+                  <a:t> (cm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="3200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1131457680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1131457680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="3200"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="3200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.12061403508772E-3"/>
+              <c:y val="0.30062821637426901"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1131451424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1175837984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1176158784"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1176158784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1175837984"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.63244961004191247"/>
+          <c:y val="0.28115506046345384"/>
+          <c:w val="0.29848713450292397"/>
+          <c:h val="0.24168538011695906"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1598,20 +2667,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>45817</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>120743</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541117</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>218317</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>51943</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>713617</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>26543</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1633,6 +3218,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>756700</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>109000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1C8100-9185-4245-AE90-D318EA1FD62A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1938,10 +3561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE33880-876D-8041-AA47-AAA1363FCA67}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2200,8 +3823,339 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D17">
+        <v>60.2</v>
+      </c>
+      <c r="E17">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="G17">
+        <v>60.2</v>
+      </c>
+      <c r="H17">
+        <v>0.90849999999999997</v>
+      </c>
+      <c r="J17">
+        <v>60</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>50.3</v>
+      </c>
+      <c r="B18">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="D18">
+        <v>50.2</v>
+      </c>
+      <c r="E18">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="G18">
+        <v>49.3</v>
+      </c>
+      <c r="H18">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="J18">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="B19">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="D19">
+        <v>40.1</v>
+      </c>
+      <c r="E19">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="G19">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="H19">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="J19">
+        <v>45</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>30.1</v>
+      </c>
+      <c r="B20">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D20">
+        <v>30.1</v>
+      </c>
+      <c r="E20">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="G20">
+        <v>30.2</v>
+      </c>
+      <c r="H20">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="J20">
+        <v>40.9</v>
+      </c>
+      <c r="K20">
+        <v>0.88039999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>0.95889999999999997</v>
+      </c>
+      <c r="G21">
+        <v>25.2</v>
+      </c>
+      <c r="H21">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="J21">
+        <v>33.4</v>
+      </c>
+      <c r="K21">
+        <v>0.70469999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B22">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="D22">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="G22">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H22">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="J22">
+        <v>30</v>
+      </c>
+      <c r="K22">
+        <v>0.97870000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="B23">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D23">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.80230000000000001</v>
+      </c>
+      <c r="G23">
+        <v>15.7</v>
+      </c>
+      <c r="H23">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="J23">
+        <v>25.2</v>
+      </c>
+      <c r="K23">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>15.4</v>
+      </c>
+      <c r="B24">
+        <v>0.83040000000000003</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="G24">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>0.96360000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>0.79779999999999995</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>0.998</v>
+      </c>
+      <c r="J25">
+        <v>19</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>0.9304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>0.75949999999999995</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>0.80259999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:E13">
+  <sortState ref="D3:E13">
     <sortCondition descending="1" ref="D3"/>
   </sortState>
   <phoneticPr fontId="1"/>
